--- a/theo/outputs/XOM/correlations.xlsx
+++ b/theo/outputs/XOM/correlations.xlsx
@@ -532,52 +532,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.2110486694375874</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.08637140842625868</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.07937427168197983</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.59004995945172</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8378179650071893</v>
+        <v>0.0453431687763687</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.03752332287223505</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.03763561193738228</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.2728451298896548</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.2718902943276834</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.03752332287223505</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.03763561193738228</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.2728451298896548</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.2718902943276834</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05942391687459775</v>
+        <v>0.02318027333772534</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0739577429103636</v>
+        <v>0.0357514210372386</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.08293271414155323</v>
+        <v>0.006000235171019682</v>
       </c>
     </row>
     <row r="3">
@@ -587,55 +587,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.2110486694375874</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.145135095128225</v>
+        <v>0.03961095422597061</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2254182062328378</v>
+        <v>0.022719378087743</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.05600704496697637</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.3495573422569611</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.1118229104144343</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.1114270471873044</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.6083103248043997</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.6064329907113137</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.08006242202478252</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.08044001794379059</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.5735866650422834</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.5716652751913521</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1243466933151483</v>
+        <v>0.05927493001879772</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.02073068716261777</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08371090259111397</v>
+        <v>0.06193582878463282</v>
       </c>
     </row>
     <row r="4">
@@ -645,55 +645,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.08637140842625868</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.145135095128225</v>
+        <v>0.03961095422597061</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.8965426699373406</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120047865316206</v>
+        <v>0.08051702570712405</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.02079682629289005</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.120490819986385</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.1203322548515141</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.06114327707296181</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.06028318879450058</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01327111248337664</v>
+        <v>-0.00680236890388525</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01184706874126569</v>
+        <v>-0.005638557572905414</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.05126245130378676</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.04953838665102864</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.3257577417854509</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.280223623358801</v>
+        <v>0.1384071466258468</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9755146407599764</v>
       </c>
     </row>
     <row r="5">
@@ -703,55 +703,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.07937427168197983</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2254182062328378</v>
+        <v>0.022719378087743</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.8965426699373406</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.1486862410140126</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.04689665364824471</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.1507468392669779</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.1506470657184729</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.06027628295447997</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.0598469182287435</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.07301125805357808</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.07327865946341126</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.06548931674252799</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.06390513445356349</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.126739790190019</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1688099653662572</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.8445440116774999</v>
       </c>
     </row>
     <row r="6">
@@ -761,55 +761,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.59004995945172</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.05600704496697637</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120047865316206</v>
+        <v>0.08051702570712405</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.1486862410140126</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.3154068145674962</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.02517848343468566</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.02599811141438828</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.2165393919686955</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.220069240536188</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.07075498896878557</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.0715015025156682</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.224431359942084</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.227989836124109</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.1370519145838983</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.08001371427097288</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.05931264363489525</v>
       </c>
     </row>
     <row r="7">
@@ -819,55 +819,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8378179650071893</v>
+        <v>0.0453431687763687</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.3495573422569611</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.02079682629289005</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.04689665364824471</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.3154068145674962</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.1068714843780467</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.1073325022227999</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.5309893991534741</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.5329261660891974</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1296928733021308</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.1301340158243341</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.5353506140671603</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.5372972893291516</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.05352540700736711</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.05030537409724085</v>
       </c>
       <c r="R7" t="n">
-        <v>0.131579400780076</v>
+        <v>0.02540563248716928</v>
       </c>
     </row>
     <row r="8">
@@ -877,55 +877,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.03752332287223505</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.1118229104144343</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.120490819986385</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.1507468392669779</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03568980690684907</v>
+        <v>0.02517848343468566</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.1068714843780467</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998986267142439</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1890627187678907</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1892674349823115</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.1248013740710919</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.1253125876581853</v>
       </c>
       <c r="N8" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1671514301167586</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1669652013553108</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.03645150810310641</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.08513462226689308</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.07629100620883848</v>
+        <v>0.1046463526157077</v>
       </c>
     </row>
     <row r="9">
@@ -935,55 +935,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.03763561193738228</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.1114270471873044</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.1203322548515141</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.1506470657184729</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03613796276230393</v>
+        <v>0.02599811141438828</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.1073325022227999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998986267142439</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.18914502332036</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1893558180735861</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.126817626527622</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.1273724198326218</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1668607360565695</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1666745933009004</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.03676171897659834</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.08589473165141365</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.07503856081897804</v>
+        <v>0.1044955928661651</v>
       </c>
     </row>
     <row r="10">
@@ -993,55 +993,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.2728451298896548</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.6083103248043997</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187843366886131</v>
+        <v>0.06114327707296181</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04052226721051069</v>
+        <v>0.06027628295447997</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1379851151712524</v>
+        <v>0.2165393919686955</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.5309893991534741</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1890627187678907</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.18914502332036</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.999942788882911</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.03810991109093878</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.03816006973219772</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.971928791674152</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9718537706499086</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1061422340971321</v>
+        <v>0.008266728798263349</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.06136530932576198</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09294398682574505</v>
+        <v>0.03449475787475176</v>
       </c>
     </row>
     <row r="11">
@@ -1051,55 +1051,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.2718902943276834</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.6064329907113137</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1157989976916509</v>
+        <v>0.06028318879450058</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04106046215530793</v>
+        <v>0.0598469182287435</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1409978309312717</v>
+        <v>0.220069240536188</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.5329261660891974</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1892674349823115</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1893558180735861</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.999942788882911</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.03844831863494909</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.03848153169499256</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.971939994402372</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.971973842406435</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1013462259039337</v>
+        <v>0.007257132256099156</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.06134293624825561</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08888643499411758</v>
+        <v>0.03329300064107589</v>
       </c>
     </row>
     <row r="12">
@@ -1109,55 +1109,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.03752332287223505</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.08006242202478252</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01327111248337664</v>
+        <v>-0.00680236890388525</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.07301125805357808</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.07075498896878557</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1296928733021308</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.1248013740710919</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.126817626527622</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.03810991109093878</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.03844831863494909</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998986267142439</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1890627187678907</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1892674349823115</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04774522972927903</v>
+        <v>-0.131964267135715</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.05104701843980375</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01423941505429584</v>
+        <v>-0.04401247092509487</v>
       </c>
     </row>
     <row r="13">
@@ -1167,55 +1167,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.03763561193738228</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.08044001794379059</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01184706874126569</v>
+        <v>-0.005638557572905414</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.07327865946341126</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.0715015025156682</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.1301340158243341</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.1253125876581853</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.1273724198326218</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.03816006973219772</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.03848153169499256</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998986267142439</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.18914502332036</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1893558180735861</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04832629936156562</v>
+        <v>-0.1303008864827686</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.05075856754099803</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01245764775529891</v>
+        <v>-0.04286573259703155</v>
       </c>
     </row>
     <row r="14">
@@ -1225,55 +1225,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.2728451298896548</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.5735866650422834</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1234156758769617</v>
+        <v>0.05126245130378676</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03818583817582815</v>
+        <v>0.06548931674252799</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1225037330819913</v>
+        <v>0.224431359942084</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.5353506140671603</v>
       </c>
       <c r="H14" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1671514301167586</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1668607360565695</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.971928791674152</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.971939994402372</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1890627187678907</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.18914502332036</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.999942788882911</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.02382429407118961</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.07235534695907496</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.09725628004518826</v>
+        <v>0.01918593858539377</v>
       </c>
     </row>
     <row r="15">
@@ -1283,55 +1283,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.2718902943276834</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.5716652751913521</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1202710080448487</v>
+        <v>0.04953838665102864</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03845184227154824</v>
+        <v>0.06390513445356349</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1253690864555329</v>
+        <v>0.227989836124109</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.5372972893291516</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1669652013553108</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1666745933009004</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9718537706499086</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.971973842406435</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1892674349823115</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1893558180735861</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.999942788882911</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.0241657334038823</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.07210945604354642</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0931030164476196</v>
+        <v>0.01721918984236811</v>
       </c>
     </row>
     <row r="16">
@@ -1341,55 +1341,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05942391687459775</v>
+        <v>0.02318027333772534</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1243466933151483</v>
+        <v>0.05927493001879772</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.3257577417854509</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.126739790190019</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.1370519145838983</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.05352540700736711</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03026040668044333</v>
+        <v>-0.03645150810310641</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03004065622586707</v>
+        <v>-0.03676171897659834</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1061422340971321</v>
+        <v>0.008266728798263349</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1013462259039337</v>
+        <v>0.007257132256099156</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04774522972927903</v>
+        <v>-0.131964267135715</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04832629936156562</v>
+        <v>-0.1303008864827686</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.02382429407118961</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.0241657334038823</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.6702517640040411</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.3819130143359174</v>
       </c>
     </row>
     <row r="17">
@@ -1399,55 +1399,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0739577429103636</v>
+        <v>0.0357514210372386</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.02073068716261777</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280223623358801</v>
+        <v>0.1384071466258468</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1688099653662572</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.08001371427097288</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.05030537409724085</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.08513462226689308</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.08589473165141365</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.06136530932576198</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.06134293624825561</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.05104701843980375</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.05075856754099803</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.07235534695907496</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.07210945604354642</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.6702517640040411</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.1527997591327002</v>
       </c>
     </row>
     <row r="18">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08293271414155323</v>
+        <v>0.006000235171019682</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08371090259111397</v>
+        <v>0.06193582878463282</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9755146407599764</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.8445440116774999</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.05931264363489525</v>
       </c>
       <c r="G18" t="n">
-        <v>0.131579400780076</v>
+        <v>0.02540563248716928</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07629100620883848</v>
+        <v>0.1046463526157077</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07503856081897804</v>
+        <v>0.1044955928661651</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09294398682574505</v>
+        <v>0.03449475787475176</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.08888643499411758</v>
+        <v>0.03329300064107589</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01423941505429584</v>
+        <v>-0.04401247092509487</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01245764775529891</v>
+        <v>-0.04286573259703155</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09725628004518826</v>
+        <v>0.01918593858539377</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0931030164476196</v>
+        <v>0.01721918984236811</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.3819130143359174</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.1527997591327002</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1624,52 +1624,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1863684743311797</v>
+        <v>0.1356718333632416</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.04625602490329921</v>
       </c>
       <c r="E2" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.04881525557690698</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.2428782907690291</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1169963410590373</v>
+        <v>0.1372285966349425</v>
       </c>
       <c r="H2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.03035165709888215</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.03004227175870078</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1224492381735022</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1224935782824515</v>
       </c>
       <c r="L2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.03035165709888215</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.03004227175870078</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1224492381735022</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1224935782824515</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01675235880231756</v>
+        <v>0.003406498371368204</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.01631327507104574</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1105540313008141</v>
+        <v>-0.00139166561980562</v>
       </c>
     </row>
     <row r="3">
@@ -1679,55 +1679,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1863684743311797</v>
+        <v>0.1356718333632416</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.0664137962587619</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.055660829038042</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.3919112849166358</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.7875195791757454</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.06348948913204973</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.06310605288147896</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.3359786967716595</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.3342681418829998</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.05395159653974001</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.05430655692649744</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.3150671201567636</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.3133260908575556</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002093105334223094</v>
+        <v>-0.01229406289176884</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01404586819640572</v>
+        <v>-0.02482815727853995</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.02162521997673434</v>
       </c>
     </row>
     <row r="4">
@@ -1737,55 +1737,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5059116106770681</v>
+        <v>-0.04625602490329921</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.0664137962587619</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.3953113287212481</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.01077060582249301</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.06660484594546276</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.05994736454893126</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.06208528532500677</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.004863341486153981</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.005868063554830232</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.1367705447600124</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.1397803183360849</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1171884511774632</v>
+        <v>0.01917474293341653</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.113877634034877</v>
+        <v>0.01823397281809785</v>
       </c>
       <c r="P4" t="n">
-        <v>0.381730299763587</v>
+        <v>0.5488790306452065</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.493932274508638</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9816936528129454</v>
       </c>
     </row>
     <row r="5">
@@ -1795,55 +1795,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.510910672846745</v>
+        <v>-0.04881525557690698</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.055660829038042</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.3953113287212481</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.1926763338563532</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.08246290267963842</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.1754017239465537</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.1772209503456162</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.04033534296059268</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.04015815831263024</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.08713565018238548</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.08886054013214977</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.0559533233588105</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.05553923403788642</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.5508371513341352</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.09920334205402427</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.2945706418845611</v>
       </c>
     </row>
     <row r="6">
@@ -1853,55 +1853,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9125292365146231</v>
+        <v>-0.2428782907690291</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.3919112849166358</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.01077060582249301</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.1926763338563532</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.427986670854539</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.003268920756792106</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.003034993856093591</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.071658661735564</v>
+        <v>0.05072588583474998</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06835596837026831</v>
+        <v>0.05075599011565855</v>
       </c>
       <c r="L6" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>-0.003680741814398421</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>-0.003613190050665734</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0714630892871788</v>
+        <v>0.05066659012371925</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.06818898008088864</v>
+        <v>0.05066131678898816</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1655540496785451</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.1239194846644054</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.07654903164152752</v>
       </c>
     </row>
     <row r="7">
@@ -1911,55 +1911,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1169963410590373</v>
+        <v>0.1372285966349425</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.7875195791757454</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.06660484594546276</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.08246290267963842</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.427986670854539</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.05078712840252564</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.05101931957430792</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.3158746595478809</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.3174813822366163</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.06730503973835546</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.06737672464072783</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.3189908761946805</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.3205799842355049</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.01452471370662234</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.04536824564622619</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01950943368362832</v>
+        <v>-0.01112694789246585</v>
       </c>
     </row>
     <row r="8">
@@ -1969,55 +1969,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.03035165709888215</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.06348948913204973</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01481616675515068</v>
+        <v>-0.05994736454893126</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.1754017239465537</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.003268920756792106</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.05078712840252564</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9997557694034847</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.177990451248279</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1782369840337556</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.05742654404628498</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.05607257220766149</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1712884859296647</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.171562681748002</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.2169959282260101</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.1802171041911111</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.09788875696831745</v>
       </c>
     </row>
     <row r="9">
@@ -2027,55 +2027,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.03004227175870078</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.06310605288147896</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01347445623176441</v>
+        <v>-0.06208528532500677</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.1772209503456162</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.003034993856093591</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.05101931957430792</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9997557694034847</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.177714695251155</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1780170491633452</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.05627272158325011</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.05494360786787401</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1711474185229531</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1714796287812703</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.2205276217031781</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.1822498057791125</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.1005725984580426</v>
       </c>
     </row>
     <row r="10">
@@ -2085,55 +2085,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1224492381735022</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.3359786967716595</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.004863341486153981</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04310050022836153</v>
+        <v>0.04033534296059268</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.071658661735564</v>
+        <v>0.05072588583474998</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.3158746595478809</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.177990451248279</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.177714695251155</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9998220758126944</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.01378409502168216</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.01348546524085694</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9713963872211808</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9711642798818056</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.04112515116857386</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.1075597344843926</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.01628762585589444</v>
       </c>
     </row>
     <row r="11">
@@ -2143,55 +2143,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1224935782824515</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.3342681418829998</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.005868063554830232</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04146675768920986</v>
+        <v>0.04015815831263024</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06835596837026831</v>
+        <v>0.05075599011565855</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.3174813822366163</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1782369840337556</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1780170491633452</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9998220758126944</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.01397069224195465</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.01364946454132357</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9712975443410502</v>
       </c>
       <c r="O11" t="n">
-        <v>0.973138845170242</v>
+        <v>0.971406560558183</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.04187682171946581</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.1078255099743733</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.0175317135918213</v>
       </c>
     </row>
     <row r="12">
@@ -2201,55 +2201,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.03035165709888215</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.05395159653974001</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008499475188913396</v>
+        <v>0.1367705447600124</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.08713565018238548</v>
       </c>
       <c r="F12" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>-0.003680741814398421</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.06730503973835546</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.05742654404628498</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.05627272158325011</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.01378409502168216</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.01397069224195465</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9997557694034847</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.177990451248279</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1782369840337556</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.04034124239250588</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.02224086749550114</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.1080599806661251</v>
       </c>
     </row>
     <row r="13">
@@ -2259,55 +2259,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.03004227175870078</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.05430655692649744</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008856118381615683</v>
+        <v>0.1397803183360849</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.08886054013214977</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>-0.003613190050665734</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.06737672464072783</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.05607257220766149</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.05494360786787401</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.01348546524085694</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.01364946454132357</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9997557694034847</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.177714695251155</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1780170491633452</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.04162650698102555</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.0236530364013215</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.1110055721315557</v>
       </c>
     </row>
     <row r="14">
@@ -2317,55 +2317,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1224492381735022</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.3150671201567636</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1171884511774632</v>
+        <v>0.01917474293341653</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04289473635930479</v>
+        <v>0.0559533233588105</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0714630892871788</v>
+        <v>0.05066659012371925</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.3189908761946805</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1712884859296647</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1711474185229531</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9713963872211808</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9712975443410502</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.177990451248279</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.177714695251155</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9998220758126944</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.03490202433357863</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.1044983001865105</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.07167927480566143</v>
+        <v>0.00184465298183268</v>
       </c>
     </row>
     <row r="15">
@@ -2375,55 +2375,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1224935782824515</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.3133260908575556</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.113877634034877</v>
+        <v>0.01823397281809785</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04105360920728408</v>
+        <v>0.05553923403788642</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06818898008088864</v>
+        <v>0.05066131678898816</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.3205799842355049</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.171562681748002</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1714796287812703</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9711642798818056</v>
       </c>
       <c r="K15" t="n">
-        <v>0.973138845170242</v>
+        <v>0.971406560558183</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1782369840337556</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1780170491633452</v>
       </c>
       <c r="N15" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9998220758126944</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.03534049687880737</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.1045760420219488</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.07089367457370295</v>
+        <v>0.000734752484422103</v>
       </c>
     </row>
     <row r="16">
@@ -2433,55 +2433,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01675235880231756</v>
+        <v>0.003406498371368204</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002093105334223094</v>
+        <v>-0.01229406289176884</v>
       </c>
       <c r="D16" t="n">
-        <v>0.381730299763587</v>
+        <v>0.5488790306452065</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.5508371513341352</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.1655540496785451</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.01452471370662234</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009634208144115372</v>
+        <v>-0.2169959282260101</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01145849573103268</v>
+        <v>-0.2205276217031781</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.04112515116857386</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.04187682171946581</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.04034124239250588</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.04162650698102555</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.03490202433357863</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.03534049687880737</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.539075644907434</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.6239221100198269</v>
       </c>
     </row>
     <row r="17">
@@ -2491,55 +2491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.01631327507104574</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01404586819640572</v>
+        <v>-0.02482815727853995</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.493932274508638</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.09920334205402427</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.1239194846644054</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.04536824564622619</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.1802171041911111</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.1822498057791125</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.1075597344843926</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.1078255099743733</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.02224086749550114</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.0236530364013215</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.1044983001865105</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.1045760420219488</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.539075644907434</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.5237559731738906</v>
       </c>
     </row>
     <row r="18">
@@ -2549,52 +2549,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1105540313008141</v>
+        <v>-0.00139166561980562</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.02162521997673434</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.9816936528129454</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.2945706418845611</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.07654903164152752</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01950943368362832</v>
+        <v>-0.01112694789246585</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02036847947948598</v>
+        <v>-0.09788875696831745</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02337317420084243</v>
+        <v>-0.1005725984580426</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.01628762585589444</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.0175317135918213</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.007005557741621795</v>
+        <v>0.1080599806661251</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.006349395072829069</v>
+        <v>0.1110055721315557</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.07167927480566143</v>
+        <v>0.00184465298183268</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.07089367457370295</v>
+        <v>0.000734752484422103</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.6239221100198269</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.5237559731738906</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2716,52 +2716,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.7279659020098138</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.06234381258624123</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.06240977380495605</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.3286840766740298</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.7285221973264963</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.003835267678798943</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.004427630941670566</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.06668418997065313</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.06994346800157732</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.003835267678798943</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.004427630941670566</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.06668418997065313</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.06994346800157732</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03278743538109485</v>
+        <v>-0.001883232584802007</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1205942488249974</v>
+        <v>0.007060674012314495</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.00306854173493557</v>
       </c>
     </row>
     <row r="3">
@@ -2771,55 +2771,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.7279659020098138</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.06920427255639004</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.06288545895312415</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.3359031219302476</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9751351970098857</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.0183711272892983</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.01733310754578158</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.0608631752836517</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.05281527301199986</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.02335343292399049</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.02424268563048699</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.05340608765601366</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.04543155265535672</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.007472452218002408</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0328258624092044</v>
+        <v>0.01285114395477897</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.00664607473490353</v>
       </c>
     </row>
     <row r="4">
@@ -2829,55 +2829,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.06234381258624123</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.06920427255639004</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.4742341725125537</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.0338247047515976</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.0691243134765126</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.01626316957737133</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.01840175683278609</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.002619551247405238</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.004360838768951341</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.06059192205566201</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.06221052278508103</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04910470280271267</v>
+        <v>0.002869851455404349</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.05034905349114259</v>
+        <v>0.001074122197251025</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.5131708876675182</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.386775948412562</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.9569362668683975</v>
       </c>
     </row>
     <row r="5">
@@ -2887,55 +2887,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.06240977380495605</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.06288545895312415</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.4742341725125537</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.1868337081058608</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.06604822919915476</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.05110371722247226</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.04868163074737315</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.01746055449926181</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.01604273711748606</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.06209900162940548</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.06357636388276647</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.01862833821128189</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.01620283420596372</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.5122711469037501</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1131283146801628</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.3681896538022235</v>
       </c>
     </row>
     <row r="6">
@@ -2945,55 +2945,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.3286840766740298</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.3359031219302476</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.0338247047515976</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.1868337081058608</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.3592383423982384</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.01295735994801703</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.01276207765162873</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.1222774356854371</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.1177901626919762</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.007806223691530037</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.007928819065786508</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.1213106533414539</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.1168896025713399</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1491453519170373</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1619837905394208</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.09573543129187363</v>
       </c>
     </row>
     <row r="7">
@@ -3003,55 +3003,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.7285221973264963</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9751351970098857</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.0691243134765126</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.06604822919915476</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.3592383423982384</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.02124930356544714</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.02223352419686571</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1618501373912251</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1689288168396875</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.02259343066317229</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.02335032389777371</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1620906662778005</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1691235789025941</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.006391245112363666</v>
+        <v>-0.003041011968723737</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.02400215601303278</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.002174835212749643</v>
       </c>
     </row>
     <row r="8">
@@ -3061,55 +3061,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.003835267678798943</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.0183711272892983</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.008412173814428259</v>
+        <v>-0.01626316957737133</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.05110371722247226</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.01295735994801703</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.02124930356544714</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9964369688620514</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.177773101295115</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1760428952425978</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.02366315954509169</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.02000601408251237</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1722616562048935</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1709144398182635</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.06625744529229133</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.03512802955425963</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.05883312193037081</v>
       </c>
     </row>
     <row r="9">
@@ -3119,55 +3119,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.004427630941670566</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.01733310754578158</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007932935706425738</v>
+        <v>-0.01840175683278609</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.04868163074737315</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.01276207765162873</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.02223352419686571</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9964369688620514</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1775985781671227</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1771845502284211</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.02102650932696578</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.01746939971684007</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1723540096747896</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1722802654545612</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.06605412469004404</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.03572582258196267</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.05827999365276022</v>
       </c>
     </row>
     <row r="10">
@@ -3177,55 +3177,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.06668418997065313</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.0608631752836517</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.002619551247405238</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.01746055449926181</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.1222774356854371</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1618501373912251</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.177773101295115</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1775985781671227</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9960460543192279</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.006659015343432671</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.006880488257694165</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9695971628783521</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.965882654116572</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.0195773681237694</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.05088178307597136</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.03939001080805911</v>
       </c>
     </row>
     <row r="11">
@@ -3235,55 +3235,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.06994346800157732</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.05281527301199986</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.004360838768951341</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.01604273711748606</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.1177901626919762</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1689288168396875</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1760428952425978</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1771845502284211</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9960460543192279</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.007528024829462586</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.007785075407365991</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.965955499659846</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9698954780464657</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.01989377664245379</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.04697359296249562</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.03917606511674358</v>
       </c>
     </row>
     <row r="12">
@@ -3293,55 +3293,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.003835267678798943</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.02335343292399049</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.06059192205566201</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.06209900162940548</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.007806223691530037</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.02259343066317229</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.02366315954509169</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.02102650932696578</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.006659015343432671</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.007528024829462586</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9964369688620514</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.177773101295115</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1760428952425978</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01231767746807113</v>
+        <v>-0.003024592810134445</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.003573586086288888</v>
       </c>
       <c r="R12" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.04487386606668396</v>
       </c>
     </row>
     <row r="13">
@@ -3351,55 +3351,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.004427630941670566</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.02424268563048699</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.06221052278508103</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.06357636388276647</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.007928819065786508</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.02335032389777371</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.02000601408251237</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.01746939971684007</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.006880488257694165</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.007785075407365991</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9964369688620514</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1775985781671227</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1771845502284211</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01282555572957506</v>
+        <v>-0.002946765341415758</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.001074399397967056</v>
       </c>
       <c r="R13" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.04599103687012705</v>
       </c>
     </row>
     <row r="14">
@@ -3409,55 +3409,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.06668418997065313</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.05340608765601366</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04910470280271267</v>
+        <v>0.002869851455404349</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.01862833821128189</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.1213106533414539</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1620906662778005</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1722616562048935</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1723540096747896</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9695971628783521</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.965955499659846</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.177773101295115</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1775985781671227</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9960460543192279</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.01584869649179794</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.04990469056026556</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.03235437443637054</v>
       </c>
     </row>
     <row r="15">
@@ -3467,55 +3467,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.06994346800157732</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.04543155265535672</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05034905349114259</v>
+        <v>0.001074122197251025</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.01620283420596372</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.1168896025713399</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1691235789025941</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1709144398182635</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1722802654545612</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.965882654116572</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9698954780464657</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1760428952425978</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1771845502284211</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9960460543192279</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.01527254243250209</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.04541720501004123</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.03252678047271784</v>
       </c>
     </row>
     <row r="16">
@@ -3525,55 +3525,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03278743538109485</v>
+        <v>-0.001883232584802007</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.007472452218002408</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.5131708876675182</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.5122711469037501</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1491453519170373</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006391245112363666</v>
+        <v>-0.003041011968723737</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>-0.06625744529229133</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001618141409125537</v>
+        <v>-0.06605412469004404</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.0195773681237694</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.01989377664245379</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01231767746807113</v>
+        <v>-0.003024592810134445</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01282555572957506</v>
+        <v>-0.002946765341415758</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.01584869649179794</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.01527254243250209</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.4875846108778589</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.5745435516973599</v>
       </c>
     </row>
     <row r="17">
@@ -3583,55 +3583,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1205942488249974</v>
+        <v>0.007060674012314495</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0328258624092044</v>
+        <v>0.01285114395477897</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.386775948412562</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1131283146801628</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.1619837905394208</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.02400215601303278</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003036857201429574</v>
+        <v>-0.03512802955425963</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001939945135960296</v>
+        <v>-0.03572582258196267</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.05088178307597136</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.04697359296249562</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01502653945814526</v>
+        <v>-0.003573586086288888</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01509284879446856</v>
+        <v>-0.001074399397967056</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.04990469056026556</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.04541720501004123</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.4875846108778589</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.4319602385475673</v>
       </c>
     </row>
     <row r="18">
@@ -3641,52 +3641,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.00306854173493557</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.00664607473490353</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.9569362668683975</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.3681896538022235</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.09573543129187363</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.002174835212749643</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.05883312193037081</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.05827999365276022</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.03939001080805911</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.03917606511674358</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.04487386606668396</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.04599103687012705</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.03235437443637054</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.03252678047271784</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.5745435516973599</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.4319602385475673</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
